--- a/biology/Médecine/Alexandre_Bottex/Alexandre_Bottex.xlsx
+++ b/biology/Médecine/Alexandre_Bottex/Alexandre_Bottex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre Bottex, né le 2 novembre 1796 à Neuville-sur-Ain et mort dans cette même commune le 23 septembre 1849 (à 52 ans), est un médecin français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alexandre Bottex étudie l'anatomie et la chirurgie à l'Hôtel-Dieu de Lyon dès 1813 et devient docteur en 1823[1]. Il commence en 1830 à l'hôpital de l'Antiquaille et en devient médecin chef du quartier des aliénés en 1842. Cette même année, il est également inspecteur des aliénés du département du Rhône.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexandre Bottex étudie l'anatomie et la chirurgie à l'Hôtel-Dieu de Lyon dès 1813 et devient docteur en 1823. Il commence en 1830 à l'hôpital de l'Antiquaille et en devient médecin chef du quartier des aliénés en 1842. Cette même année, il est également inspecteur des aliénés du département du Rhône.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alexandre Bottex est élu « membre libre » à l'Académie des sciences, belles-lettres et arts de Lyon le 7 juin 1842 mais ne sera pas titularisé lors de la suppression de cette catégorie le 26 janvier 1847[2]. Il est fait chevalier de la Légion d'honneur en 1846[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexandre Bottex est élu « membre libre » à l'Académie des sciences, belles-lettres et arts de Lyon le 7 juin 1842 mais ne sera pas titularisé lors de la suppression de cette catégorie le 26 janvier 1847. Il est fait chevalier de la Légion d'honneur en 1846.
 </t>
         </is>
       </c>
